--- a/doc/NBV2_PIN.xlsx
+++ b/doc/NBV2_PIN.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\NickelBird\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A46DB3E-673C-4E5B-A144-6318F1CC36D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>PWM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,76 @@
   </si>
   <si>
     <t>IN12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH6</t>
+  </si>
+  <si>
+    <t>CH5</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>AUXPWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTI0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,24 +579,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82A994C-BE5B-4868-8633-7445659897EB}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.9296875" customWidth="1"/>
-    <col min="3" max="3" width="1.19921875" customWidth="1"/>
-    <col min="4" max="10" width="5.265625" customWidth="1"/>
-    <col min="11" max="11" width="1.3984375" customWidth="1"/>
-    <col min="12" max="13" width="5.1328125" customWidth="1"/>
+    <col min="1" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="1.25" customWidth="1"/>
+    <col min="4" max="10" width="5.25" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="12" max="13" width="5.125" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="22" width="5.1328125" customWidth="1"/>
-    <col min="23" max="23" width="1.33203125" customWidth="1"/>
-    <col min="24" max="27" width="5.1328125" customWidth="1"/>
+    <col min="15" max="22" width="5.125" customWidth="1"/>
+    <col min="23" max="23" width="1.375" customWidth="1"/>
+    <col min="24" max="27" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -671,4 +742,298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48102C-AC92-408A-A897-D8829820894F}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NBV2_PIN.xlsx
+++ b/doc/NBV2_PIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\NickelBird\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8458D6B4-F214-49E0-9A1D-C2B6E9D4BD47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SYNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXTI0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +187,14 @@
   </si>
   <si>
     <t>CAP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,20 +583,20 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="5.875" customWidth="1"/>
-    <col min="3" max="3" width="1.25" customWidth="1"/>
-    <col min="4" max="10" width="5.25" customWidth="1"/>
-    <col min="11" max="11" width="1.375" customWidth="1"/>
-    <col min="12" max="13" width="5.125" customWidth="1"/>
+    <col min="1" max="2" width="5.86328125" customWidth="1"/>
+    <col min="3" max="3" width="1.265625" customWidth="1"/>
+    <col min="4" max="10" width="5.265625" customWidth="1"/>
+    <col min="11" max="11" width="1.3984375" customWidth="1"/>
+    <col min="12" max="13" width="5.1328125" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="22" width="5.125" customWidth="1"/>
-    <col min="23" max="23" width="1.375" customWidth="1"/>
-    <col min="24" max="27" width="5.125" customWidth="1"/>
+    <col min="15" max="22" width="5.1328125" customWidth="1"/>
+    <col min="23" max="23" width="1.3984375" customWidth="1"/>
+    <col min="24" max="27" width="5.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,13 +748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48102C-AC92-408A-A897-D8829820894F}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>1</v>
       </c>
@@ -843,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,10 +961,10 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
         <v>9</v>
@@ -997,18 +997,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
         <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>39</v>
       </c>
       <c r="W4" t="s">
         <v>6</v>

--- a/doc/NBV2_PIN.xlsx
+++ b/doc/NBV2_PIN.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8458D6B4-F214-49E0-9A1D-C2B6E9D4BD47}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC03B54F-0825-4A26-B113-A8369C6BAD0E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
+    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>PWM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +181,6 @@
     <t>CH2</t>
   </si>
   <si>
-    <t>AUXPWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EXTI0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +202,102 @@
   </si>
   <si>
     <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH14</t>
+  </si>
+  <si>
+    <t>CH13</t>
+  </si>
+  <si>
+    <t>CH12</t>
+  </si>
+  <si>
+    <t>CH11</t>
+  </si>
+  <si>
+    <t>CH10</t>
+  </si>
+  <si>
+    <t>CH9</t>
+  </si>
+  <si>
+    <t>CH8</t>
+  </si>
+  <si>
+    <t>CH7</t>
+  </si>
+  <si>
+    <t>CANH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUXPWM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUXPWM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYNC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO with TIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digitial Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,12 +359,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,20 +698,20 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.86328125" customWidth="1"/>
-    <col min="3" max="3" width="1.265625" customWidth="1"/>
-    <col min="4" max="10" width="5.265625" customWidth="1"/>
-    <col min="11" max="11" width="1.3984375" customWidth="1"/>
-    <col min="12" max="13" width="5.1328125" customWidth="1"/>
+    <col min="1" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="1.25" customWidth="1"/>
+    <col min="4" max="10" width="5.25" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="12" max="13" width="5.125" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="22" width="5.1328125" customWidth="1"/>
-    <col min="23" max="23" width="1.3984375" customWidth="1"/>
-    <col min="24" max="27" width="5.1328125" customWidth="1"/>
+    <col min="15" max="22" width="5.125" customWidth="1"/>
+    <col min="23" max="23" width="1.375" customWidth="1"/>
+    <col min="24" max="27" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,15 +861,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48102C-AC92-408A-A897-D8829820894F}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="30" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -843,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,6 +1016,9 @@
       <c r="U2" t="s">
         <v>3</v>
       </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
       <c r="W2" t="s">
         <v>8</v>
       </c>
@@ -910,6 +1031,9 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
       <c r="AB2" t="s">
         <v>3</v>
       </c>
@@ -920,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,10 +1085,10 @@
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
@@ -973,7 +1097,10 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
       </c>
       <c r="W3" t="s">
         <v>9</v>
@@ -987,6 +1114,9 @@
       <c r="Z3" t="s">
         <v>3</v>
       </c>
+      <c r="AA3" t="s">
+        <v>2</v>
+      </c>
       <c r="AB3" t="s">
         <v>2</v>
       </c>
@@ -997,18 +1127,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
         <v>6</v>
@@ -1022,17 +1152,457 @@
       <c r="Z4" t="s">
         <v>3</v>
       </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
       <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4">
+        <v>13</v>
+      </c>
+      <c r="O6" s="4">
+        <v>14</v>
+      </c>
+      <c r="P6" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>16</v>
+      </c>
+      <c r="R6" s="4">
+        <v>17</v>
+      </c>
+      <c r="S6" s="4">
+        <v>18</v>
+      </c>
+      <c r="T6" s="4">
+        <v>19</v>
+      </c>
+      <c r="U6" s="4">
+        <v>20</v>
+      </c>
+      <c r="V6" s="4">
+        <v>21</v>
+      </c>
+      <c r="W6" s="4">
+        <v>22</v>
+      </c>
+      <c r="X6" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
         <v>0</v>
       </c>
-      <c r="AD4" t="s">
-        <v>37</v>
-      </c>
+      <c r="AD9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/NBV2_PIN.xlsx
+++ b/doc/NBV2_PIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC03B54F-0825-4A26-B113-A8369C6BAD0E}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EE952B-5BB4-44E7-AFA8-F09CACC84372}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
   <si>
     <t>PWM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>CAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V-NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +868,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1435,16 +1439,16 @@
         <v>3</v>
       </c>
       <c r="AB8" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="AC8" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="AD8" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="AE8" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">

--- a/doc/NBV2_PIN.xlsx
+++ b/doc/NBV2_PIN.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\科研要紧\NickelBird\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{F0732FF0-C9DD-4646-AD69-A10E16CF7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EE952B-5BB4-44E7-AFA8-F09CACC84372}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6CF4D-BB58-4A82-8D70-1B2424227E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
+    <workbookView minimized="1" xWindow="-28380" yWindow="11355" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{0AF88129-D38B-4939-949E-63215EBD11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="70">
   <si>
     <t>PWM1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48102C-AC92-408A-A897-D8829820894F}">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,6 +1600,383 @@
       </c>
       <c r="AE10" s="5"/>
     </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>16</v>
+      </c>
+      <c r="R13" s="4">
+        <v>17</v>
+      </c>
+      <c r="S13" s="4">
+        <v>18</v>
+      </c>
+      <c r="T13" s="4">
+        <v>19</v>
+      </c>
+      <c r="U13" s="4">
+        <v>20</v>
+      </c>
+      <c r="V13" s="4">
+        <v>21</v>
+      </c>
+      <c r="W13" s="4">
+        <v>22</v>
+      </c>
+      <c r="X13" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B10:Q10"/>
@@ -1610,4 +1988,713 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B07CAB-0B95-44E5-BAB2-7EA52B90DEEB}">
+  <dimension ref="A1:AJ30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:AJ10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D30">
+    <sortCondition descending="1" ref="A1:A30"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>